--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D5D02-CF21-4FA3-8EA0-89FFF7039F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB2DD1-E51F-4A82-B494-68563C057EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sounders" sheetId="7" r:id="rId1"/>
-    <sheet name="Czech" sheetId="8" r:id="rId2"/>
+    <sheet name="Germany" sheetId="7" r:id="rId1"/>
+    <sheet name="Belgium" sheetId="9" r:id="rId2"/>
+    <sheet name="Czech" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Wg</t>
   </si>
@@ -72,19 +73,25 @@
     <t>Germany Market</t>
   </si>
   <si>
-    <t>NGC-3475/T1747</t>
-  </si>
-  <si>
     <t>Czech Market</t>
   </si>
   <si>
-    <t>NGC-3477/T1739</t>
-  </si>
-  <si>
     <t>SB520</t>
   </si>
   <si>
     <t>SB520 c/w Front Cover</t>
+  </si>
+  <si>
+    <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1763</t>
+  </si>
+  <si>
+    <t>NGC-3478/T2290/2326</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1851/T1863</t>
   </si>
 </sst>
 </file>
@@ -506,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -578,16 +585,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -602,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588717BC-6E95-47F0-BE15-2ECBB6661F94}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -652,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -674,13 +691,120 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB2DD1-E51F-4A82-B494-68563C057EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12D811-A963-4766-877C-95DEC274382C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="9" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>NGC-3477/T1851/T1863</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2647/T2657</t>
   </si>
 </sst>
 </file>
@@ -729,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,4 +837,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB14E83C-D812-4A43-94C1-853176C89F84}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12D811-A963-4766-877C-95DEC274382C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23C78B-27EE-4BBF-AB37-AA00108A3E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="9" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>NGC-3476/T2647/T2657</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2438/T2465</t>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB14E83C-D812-4A43-94C1-853176C89F84}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -944,4 +951,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E217DD-09B7-48CD-B06D-10C6692ABE46}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE23C78B-27EE-4BBF-AB37-AA00108A3E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB19FD-537C-4941-BE46-8FE8A3DD8915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>NGC-3479/T2438/T2465</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3180</t>
   </si>
 </sst>
 </file>
@@ -957,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E217DD-09B7-48CD-B06D-10C6692ABE46}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,4 +1065,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A275A8B0-1C2F-417C-A5E8-2845BD5B7FE1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB19FD-537C-4941-BE46-8FE8A3DD8915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174AB81-B3EC-4197-AC7A-BCF80AE162BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
+    <sheet name="Italy" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>NGC-2930/T3180</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2226/T2447</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A275A8B0-1C2F-417C-A5E8-2845BD5B7FE1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,4 +1179,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3872518B-4C2B-4709-BD58-4D530AD31597}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174AB81-B3EC-4197-AC7A-BCF80AE162BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23FCB1-B2A4-4535-870C-F7EC7BC8634D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>NGC-3145/T2226/T2447</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2053/T2057</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3872518B-4C2B-4709-BD58-4D530AD31597}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,4 +1293,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76BD58-6084-485C-B926-823FE4ED700B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23FCB1-B2A4-4535-870C-F7EC7BC8634D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB6AFE-A717-4468-8097-7A682F8283E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>NGC-3103/T2053/T2057</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3313</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76BD58-6084-485C-B926-823FE4ED700B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,4 +1406,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7692869-5430-4C02-8C20-C01E03DAF132}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB6AFE-A717-4468-8097-7A682F8283E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC47610-CBB5-4AFC-8DAA-B713634A8A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>NGC-3191/T3313</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2478</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -561,15 +568,15 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -577,7 +584,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +596,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -611,41 +618,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F303C21-B934-47C5-891E-DD6048AA646C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -668,15 +781,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -684,7 +797,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,7 +809,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,41 +831,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -775,15 +888,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -791,7 +904,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -803,7 +916,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +938,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -882,15 +995,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -898,7 +1011,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -910,7 +1023,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -920,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,41 +1045,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -989,15 +1102,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1118,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1130,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,41 +1152,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1096,15 +1209,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1225,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1237,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1146,41 +1259,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1203,15 +1316,15 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1219,7 +1332,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1344,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,41 +1366,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1310,14 +1423,14 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1438,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1450,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,41 +1472,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1412,18 +1525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7692869-5430-4C02-8C20-C01E03DAF132}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1544,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1556,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1465,41 +1578,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC47610-CBB5-4AFC-8DAA-B713634A8A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D8AAE-6416-4D58-A9C5-1AE6EFBB2BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3208/3192</t>
   </si>
 </sst>
 </file>
@@ -568,15 +575,15 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -584,7 +591,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,7 +603,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,41 +625,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -671,18 +678,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F303C21-B934-47C5-891E-DD6048AA646C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -690,7 +697,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,7 +709,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -712,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,41 +731,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6F027-14BF-4032-AC85-E8A88616164E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -781,15 +894,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -797,7 +910,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -809,7 +922,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,41 +944,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -888,15 +1001,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -904,7 +1017,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1029,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,41 +1051,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -995,15 +1108,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1124,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1136,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,41 +1158,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1102,15 +1215,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1231,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1243,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,41 +1265,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1209,15 +1322,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1338,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1350,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1259,41 +1372,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1316,15 +1429,15 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1445,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1457,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1366,41 +1479,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1423,14 +1536,14 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1551,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1563,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1472,41 +1585,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1529,14 +1642,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1657,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1669,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1578,41 +1691,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D8AAE-6416-4D58-A9C5-1AE6EFBB2BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF0E97-4B71-4521-BE65-A66B49719140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
+    <sheet name="Austria" sheetId="19" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -148,6 +151,18 @@
   </si>
   <si>
     <t>NGC-4119/T3208/3192</t>
+  </si>
+  <si>
+    <t>NGC-4330/T3682</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-4320/T2300</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2791</t>
   </si>
 </sst>
 </file>
@@ -784,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6F027-14BF-4032-AC85-E8A88616164E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -831,6 +846,327 @@
       </c>
       <c r="B4" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE55754-B0FC-407B-986A-B74097A946A7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1467ACC-ADCA-4D80-BFD7-0F0965077385}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D1085B-1538-4DC2-879A-7EB4B66B33BB}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF0E97-4B71-4521-BE65-A66B49719140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1F55A-CA1F-4F13-8655-ECBC9410EE42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
     <sheet name="Austria" sheetId="19" r:id="rId13"/>
     <sheet name="Denmark" sheetId="20" r:id="rId14"/>
+    <sheet name="Russia" sheetId="22" r:id="rId15"/>
+    <sheet name="Finland" sheetId="23" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -163,6 +166,24 @@
   </si>
   <si>
     <t>NGC-2913/T2791</t>
+  </si>
+  <si>
+    <t>NGC-2929/T3313</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2890</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2999/T2982</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D1085B-1538-4DC2-879A-7EB4B66B33BB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1167,6 +1188,324 @@
       </c>
       <c r="B4" t="s">
         <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C55CBC-CB69-4CF2-BBC1-11F449080750}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0654E8F9-2009-4D06-B57B-154ADFFDB765}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E479C5E0-723F-4F9C-8D75-72F3AC844CBB}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE1F55A-CA1F-4F13-8655-ECBC9410EE42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818CCB6-8AE1-4668-B61F-A639745CA7EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId15"/>
     <sheet name="Finland" sheetId="23" r:id="rId16"/>
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
+    <sheet name="Norway" sheetId="26" r:id="rId18"/>
+    <sheet name="Poland" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -184,6 +186,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3074/T3079</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3114/T3039</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E479C5E0-723F-4F9C-8D75-72F3AC844CBB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1506,6 +1520,218 @@
       </c>
       <c r="B4" t="s">
         <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9803C-BBC6-402A-BBB1-B98185D34DA1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AFA2E3-ED9C-4A4B-8F3D-CCF563E531F0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Sounder_FIM.xlsx
+++ b/Test Data/Gallery_Sounder_FIM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818CCB6-8AE1-4668-B61F-A639745CA7EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8825DF-BA86-4583-9BEC-2FC2A08E4B52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
     <sheet name="Norway" sheetId="26" r:id="rId18"/>
     <sheet name="Poland" sheetId="27" r:id="rId19"/>
+    <sheet name="UK" sheetId="28" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3350/T3368</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9803C-BBC6-402A-BBB1-B98185D34DA1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1894,6 +1901,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393B47F-D315-47B1-A4A2-BF84864AEBC4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
   <dimension ref="A1:D12"/>
